--- a/src/main/resources/UserDetails.xlsx
+++ b/src/main/resources/UserDetails.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Email</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>DanielLarson@yopmail.com</t>
+  </si>
+  <si>
+    <t>MsBretPurdy@yopmail.com</t>
+  </si>
+  <si>
+    <t>LidiaBarrows@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -537,6 +543,16 @@
         <v>19</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
